--- a/html/templates/ImportTrainingTemplate.xlsx
+++ b/html/templates/ImportTrainingTemplate.xlsx
@@ -11,12 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Cadres">Sheet2!$B$2:$B$6</definedName>
+    <definedName name="Gender">Sheet2!$A$2:$A$4</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Name of Partner</t>
   </si>
@@ -27,12 +31,6 @@
     <t>Start Date (dd/mm/yy)</t>
   </si>
   <si>
-    <t>End Date (dd/mm/yy)</t>
-  </si>
-  <si>
-    <t>Type of Training (mark X in ONLY ONE of the boxes)</t>
-  </si>
-  <si>
     <t>LARC</t>
   </si>
   <si>
@@ -72,21 +70,12 @@
     <t>S/N</t>
   </si>
   <si>
-    <t>Trainee First Name</t>
-  </si>
-  <si>
-    <t>Trainee Last Name</t>
-  </si>
-  <si>
     <t>Trainee Middle Name</t>
   </si>
   <si>
     <t>Gender (Male/ Female)</t>
   </si>
   <si>
-    <t>Cadre (e.g Nurse,Doctor,Midwife,CHO,CHEW)</t>
-  </si>
-  <si>
     <t>Health Facility Name</t>
   </si>
   <si>
@@ -103,6 +92,156 @@
   </si>
   <si>
     <t>Years left in service</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Gender:</t>
+  </si>
+  <si>
+    <t>Cadres:</t>
+  </si>
+  <si>
+    <t>Community Health Extension Worker</t>
+  </si>
+  <si>
+    <t>Community Health Officer</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Nurse/Midwife</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> End Date (dd/mm/yy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Type of Training (mark X in ONLY ONE of the boxes)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trainee First Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trainee Last Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cadre (e.g Nurse,Doctor,Midwife,CHO,CHEW)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -112,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +287,22 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -476,6 +631,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -488,71 +685,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -860,502 +1015,502 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="22"/>
-    <col min="6" max="6" width="17" style="22" customWidth="1"/>
-    <col min="7" max="12" width="9.140625" style="22"/>
+    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="17" style="8" customWidth="1"/>
+    <col min="7" max="12" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="8" t="s">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="26"/>
-    </row>
-    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="5" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="6" t="s">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="6" t="s">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="F17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="H17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="J17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>3</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>4</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>5</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>6</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>7</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>8</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>9</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>10</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>11</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>12</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>13</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>14</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>15</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>16</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>17</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>18</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
         <v>19</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
-        <v>1</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
-        <v>2</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <v>3</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
-        <v>4</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
-        <v>5</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <v>6</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
-        <v>7</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
-        <v>8</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
-        <v>9</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
-        <v>10</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
-        <v>11</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
-        <v>12</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
-        <v>13</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
-        <v>14</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
-        <v>15</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
-        <v>16</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
-        <v>17</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
-        <v>18</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
-        <v>19</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
+      <c r="A37" s="19">
         <v>20</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1366,6 +1521,14 @@
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="A4:B15"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Select Cadre from the list" sqref="F18:F37">
+      <formula1>Cadres</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Select Gender from the list" sqref="E18:E37">
+      <formula1>Gender</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1373,12 +1536,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/html/templates/ImportTrainingTemplate.xlsx
+++ b/html/templates/ImportTrainingTemplate.xlsx
@@ -76,15 +76,6 @@
     <t>Gender (Male/ Female)</t>
   </si>
   <si>
-    <t>Health Facility Name</t>
-  </si>
-  <si>
-    <t>LGA</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>Telephone number</t>
   </si>
   <si>
@@ -241,6 +232,78 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Cadre (e.g Nurse,Doctor,Midwife,CHO,CHEW)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Health Facility Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LGA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> State</t>
     </r>
   </si>
 </sst>
@@ -1015,7 +1078,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,13 +1114,13 @@
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="22" t="s">
@@ -1159,37 +1222,37 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="K17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="L17" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1549,44 +1612,44 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
